--- a/branches/KennyIntegration/AeroQuad/pinIO_328P.xlsx
+++ b/branches/KennyIntegration/AeroQuad/pinIO_328P.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18105" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="18105" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="PIN IO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
   <si>
     <t>D2</t>
   </si>
@@ -358,6 +358,84 @@
   </si>
   <si>
     <t>0x0E</t>
+  </si>
+  <si>
+    <t>Throttle</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>AUX1</t>
+  </si>
+  <si>
+    <t>AI1</t>
+  </si>
+  <si>
+    <t>AI2</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Shield  v105</t>
+  </si>
+  <si>
+    <t>Silkscreen</t>
+  </si>
+  <si>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>Rudder</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Motor0</t>
+  </si>
+  <si>
+    <t>Motor1</t>
+  </si>
+  <si>
+    <t>Motor2</t>
+  </si>
+  <si>
+    <t>Motor3</t>
+  </si>
+  <si>
+    <t>Motor4</t>
+  </si>
+  <si>
+    <t>Motor5</t>
+  </si>
+  <si>
+    <t>LED 1</t>
+  </si>
+  <si>
+    <t>LED 2</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>LED 3</t>
   </si>
 </sst>
 </file>
@@ -453,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,6 +559,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,10 +880,11 @@
     <col min="3" max="7" width="12.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -808,8 +896,14 @@
       <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -825,8 +919,14 @@
       <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -844,8 +944,14 @@
       <c r="H3" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -867,8 +973,14 @@
       <c r="I4" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -890,8 +1002,14 @@
       <c r="I5" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -899,16 +1017,18 @@
         <v>16</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -916,32 +1036,36 @@
         <v>16</v>
       </c>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -963,8 +1087,14 @@
       <c r="I12" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -986,8 +1116,14 @@
       <c r="I13" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1009,8 +1145,14 @@
       <c r="I14" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1032,8 +1174,14 @@
       <c r="I15" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1055,8 +1203,14 @@
       <c r="I16" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1078,8 +1232,14 @@
       <c r="I17" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1101,8 +1261,14 @@
       <c r="I18" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1124,8 +1290,14 @@
       <c r="I19" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -1147,48 +1319,59 @@
       <c r="I20" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -1207,8 +1390,9 @@
       <c r="I26" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -1230,8 +1414,14 @@
       <c r="I27" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -1253,8 +1443,14 @@
       <c r="I28" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -1276,8 +1472,14 @@
       <c r="I29" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1293,8 +1495,9 @@
       <c r="H30" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1310,8 +1513,9 @@
       <c r="H31" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1321,8 +1525,9 @@
       <c r="D32" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1338,8 +1543,9 @@
       <c r="I33" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -1355,8 +1561,9 @@
       <c r="I34" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -1378,6 +1585,7 @@
       <c r="I35" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="J35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q6"/>
+  <dimension ref="A2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1522,6 +1730,64 @@
         <v>101</v>
       </c>
       <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="E7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="121.5">
+      <c r="E9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
